--- a/Applications/Data/Applications.xlsx
+++ b/Applications/Data/Applications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanath\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanath\Desktop\Hey-Killer\Applications\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0EE7CF-F903-43C9-87A3-DD6BAD6B3918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F09B68-863B-4FDD-8FD8-77D2653D7AC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="150" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1862">
   <si>
     <t>Application</t>
   </si>
@@ -5603,6 +5603,9 @@
   </si>
   <si>
     <t>fb</t>
+  </si>
+  <si>
+    <t>outlook</t>
   </si>
 </sst>
 </file>
@@ -5631,7 +5634,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5654,13 +5657,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5965,10 +5982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C995"/>
+  <dimension ref="A1:C996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A983" workbookViewId="0">
+      <selection activeCell="C996" sqref="C996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16919,6 +16936,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A996" s="2">
+        <v>784</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C996" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
